--- a/output_by_subject/PH301.xlsx
+++ b/output_by_subject/PH301.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,6 +2071,380 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1901CS49</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1901CS56</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1901CS73</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1901EE67</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1901EE69</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1901EE70</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1901ME22</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1901ME28</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1901ME42</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1901ME44</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1901ME53</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1901ME67</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1901MM03</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1901MM26</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1901MM28</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1901CE30</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1901CE34</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
